--- a/good_statistics/statistics_a_star_search.xlsx
+++ b/good_statistics/statistics_a_star_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\IPL\InteligenciaArtificial\Projeto\MummyMazeProject\good_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DA500-1A51-4325-88CE-97987AE643D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5132E-095A-473E-A080-99074AA77C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="179">
   <si>
     <t>A*, Tiles distance to final position</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>A*, Enemies wall in direction exit</t>
+  </si>
+  <si>
+    <t>Breadth</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1054,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2741,16 +2744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3075,10 +3078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I138"/>
+  <dimension ref="A4:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:I69"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6737,6 +6740,219 @@
         <v>26</v>
       </c>
     </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B163">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>73</v>
+      </c>
+      <c r="B164">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>134</v>
+      </c>
+      <c r="B178">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>100</v>
+      </c>
+      <c r="B179">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>97</v>
+      </c>
+      <c r="B181">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B69:I69">
     <sortCondition ref="I69"/>
